--- a/external/correzioni/TOS.xlsx
+++ b/external/correzioni/TOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidenicoli/Local_Workspace/TesiMag/external/correzioni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08BB3D23-EFC6-6745-98C4-5495081ABF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C510EF-E390-6744-94C2-6F9CFE6D63F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="merged_MM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5943" uniqueCount="1373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5943" uniqueCount="1375">
   <si>
     <t>sensor_key</t>
   </si>
@@ -4099,9 +4099,6 @@
     <t>441*4010*2783</t>
   </si>
   <si>
-    <t>ele</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -4139,6 +4136,15 @@
   </si>
   <si>
     <t>Valutare se posibile merging con stazione SIRT - Tradizionali</t>
+  </si>
+  <si>
+    <t>lon_ok</t>
+  </si>
+  <si>
+    <t>lat_ok</t>
+  </si>
+  <si>
+    <t>ele_ok</t>
   </si>
 </sst>
 </file>
@@ -4973,9 +4979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD414"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5088,16 +5094,16 @@
         <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>13</v>
+        <v>1372</v>
       </c>
       <c r="AB1" t="s">
-        <v>14</v>
+        <v>1373</v>
       </c>
       <c r="AC1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AD1" s="6" t="s">
         <v>1359</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -5183,7 +5189,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -5589,7 +5595,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="7" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -6075,7 +6081,7 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
@@ -6801,7 +6807,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="7" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
@@ -7367,7 +7373,7 @@
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
@@ -7453,7 +7459,7 @@
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="7" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
@@ -7859,7 +7865,7 @@
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="7" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
@@ -8505,7 +8511,7 @@
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
       <c r="AD43" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.2">
@@ -9151,7 +9157,7 @@
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
       <c r="AD51" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
@@ -9237,7 +9243,7 @@
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
       <c r="AD52" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.2">
@@ -9563,7 +9569,7 @@
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
       <c r="AD56" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.2">
@@ -10209,7 +10215,7 @@
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
       <c r="AD64" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.2">
@@ -10295,7 +10301,7 @@
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
       <c r="AD65" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.2">
@@ -10381,7 +10387,7 @@
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
       <c r="AD66" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.2">
@@ -10547,7 +10553,7 @@
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
       <c r="AD68" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.2">
@@ -11273,7 +11279,7 @@
       <c r="AB77" s="2"/>
       <c r="AC77" s="2"/>
       <c r="AD77" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.2">
@@ -11839,7 +11845,7 @@
       <c r="AB84" s="2"/>
       <c r="AC84" s="2"/>
       <c r="AD84" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.2">
@@ -12965,7 +12971,7 @@
       <c r="AB98" s="2"/>
       <c r="AC98" s="2"/>
       <c r="AD98" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.2">
@@ -13291,7 +13297,7 @@
       <c r="AB102" s="2"/>
       <c r="AC102" s="2"/>
       <c r="AD102" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.2">
@@ -13377,7 +13383,7 @@
       <c r="AB103" s="2"/>
       <c r="AC103" s="2"/>
       <c r="AD103" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.2">
@@ -13543,7 +13549,7 @@
       <c r="AB105" s="2"/>
       <c r="AC105" s="2"/>
       <c r="AD105" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.2">
@@ -13949,7 +13955,7 @@
       <c r="AB110" s="2"/>
       <c r="AC110" s="2"/>
       <c r="AD110" s="8" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.2">
@@ -14195,7 +14201,7 @@
       <c r="AB113" s="2"/>
       <c r="AC113" s="2"/>
       <c r="AD113" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.2">
@@ -14441,7 +14447,7 @@
       <c r="AB116" s="2"/>
       <c r="AC116" s="2"/>
       <c r="AD116" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.2">
@@ -14527,7 +14533,7 @@
       <c r="AB117" s="2"/>
       <c r="AC117" s="2"/>
       <c r="AD117" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.2">
@@ -14695,7 +14701,7 @@
         <v>0</v>
       </c>
       <c r="AD119" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.2">
@@ -15101,7 +15107,7 @@
       <c r="AB124" s="2"/>
       <c r="AC124" s="2"/>
       <c r="AD124" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.2">
@@ -15347,7 +15353,7 @@
       <c r="AB127" s="2"/>
       <c r="AC127" s="2"/>
       <c r="AD127" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.2">
@@ -15513,7 +15519,7 @@
       <c r="AB129" s="2"/>
       <c r="AC129" s="2"/>
       <c r="AD129" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="130" spans="1:30" x14ac:dyDescent="0.2">
@@ -15839,7 +15845,7 @@
       <c r="AB133" s="4"/>
       <c r="AC133" s="4"/>
       <c r="AD133" s="7" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="134" spans="1:30" x14ac:dyDescent="0.2">
@@ -16325,7 +16331,7 @@
       <c r="AB139" s="2"/>
       <c r="AC139" s="2"/>
       <c r="AD139" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="140" spans="1:30" x14ac:dyDescent="0.2">
@@ -17051,7 +17057,7 @@
       <c r="AB148" s="2"/>
       <c r="AC148" s="2"/>
       <c r="AD148" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="149" spans="1:30" x14ac:dyDescent="0.2">
@@ -17457,7 +17463,7 @@
       <c r="AB153" s="2"/>
       <c r="AC153" s="2"/>
       <c r="AD153" s="8" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="154" spans="1:30" x14ac:dyDescent="0.2">
@@ -17783,7 +17789,7 @@
       <c r="AB157" s="4"/>
       <c r="AC157" s="4"/>
       <c r="AD157" s="7" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="158" spans="1:30" x14ac:dyDescent="0.2">
@@ -18029,7 +18035,7 @@
       <c r="AB160" s="2"/>
       <c r="AC160" s="2"/>
       <c r="AD160" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="161" spans="1:30" x14ac:dyDescent="0.2">
@@ -18595,7 +18601,7 @@
       <c r="AB167" s="4"/>
       <c r="AC167" s="4"/>
       <c r="AD167" s="7" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="168" spans="1:30" x14ac:dyDescent="0.2">
@@ -19481,7 +19487,7 @@
       <c r="AB178" s="2"/>
       <c r="AC178" s="2"/>
       <c r="AD178" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="179" spans="1:30" x14ac:dyDescent="0.2">
@@ -19967,7 +19973,7 @@
       <c r="AB184" s="4"/>
       <c r="AC184" s="4"/>
       <c r="AD184" s="7" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="185" spans="1:30" x14ac:dyDescent="0.2">
@@ -20053,7 +20059,7 @@
       <c r="AB185" s="4"/>
       <c r="AC185" s="4"/>
       <c r="AD185" s="7" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="186" spans="1:30" x14ac:dyDescent="0.2">
@@ -20139,7 +20145,7 @@
       <c r="AB186" s="2"/>
       <c r="AC186" s="2"/>
       <c r="AD186" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="187" spans="1:30" x14ac:dyDescent="0.2">
@@ -20225,7 +20231,7 @@
       <c r="AB187" s="2"/>
       <c r="AC187" s="2"/>
       <c r="AD187" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="188" spans="1:30" x14ac:dyDescent="0.2">
@@ -20631,7 +20637,7 @@
       <c r="AB192" s="2"/>
       <c r="AC192" s="2"/>
       <c r="AD192" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="193" spans="1:30" x14ac:dyDescent="0.2">
@@ -21117,7 +21123,7 @@
       <c r="AB198" s="2"/>
       <c r="AC198" s="2"/>
       <c r="AD198" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="199" spans="1:30" x14ac:dyDescent="0.2">
@@ -21283,7 +21289,7 @@
       <c r="AB200" s="2"/>
       <c r="AC200" s="2"/>
       <c r="AD200" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="201" spans="1:30" x14ac:dyDescent="0.2">
@@ -21609,7 +21615,7 @@
       <c r="AB204" s="2"/>
       <c r="AC204" s="2"/>
       <c r="AD204" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="205" spans="1:30" x14ac:dyDescent="0.2">
@@ -22015,7 +22021,7 @@
       <c r="AB209" s="2"/>
       <c r="AC209" s="2"/>
       <c r="AD209" s="8" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="210" spans="1:30" x14ac:dyDescent="0.2">
@@ -22261,7 +22267,7 @@
       <c r="AB212" s="4"/>
       <c r="AC212" s="4"/>
       <c r="AD212" s="7" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="213" spans="1:30" x14ac:dyDescent="0.2">
@@ -22907,7 +22913,7 @@
       <c r="AB220" s="2"/>
       <c r="AC220" s="2"/>
       <c r="AD220" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="221" spans="1:30" x14ac:dyDescent="0.2">
@@ -22993,7 +22999,7 @@
       <c r="AB221" s="2"/>
       <c r="AC221" s="2"/>
       <c r="AD221" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="222" spans="1:30" x14ac:dyDescent="0.2">
@@ -23639,7 +23645,7 @@
       <c r="AB229" s="2"/>
       <c r="AC229" s="2"/>
       <c r="AD229" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="230" spans="1:30" x14ac:dyDescent="0.2">
@@ -23725,7 +23731,7 @@
       <c r="AB230" s="2"/>
       <c r="AC230" s="2"/>
       <c r="AD230" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="231" spans="1:30" x14ac:dyDescent="0.2">
@@ -24851,7 +24857,7 @@
       <c r="AB244" s="4"/>
       <c r="AC244" s="4"/>
       <c r="AD244" s="7" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="245" spans="1:30" x14ac:dyDescent="0.2">
@@ -24937,7 +24943,7 @@
       <c r="AB245" s="2"/>
       <c r="AC245" s="2"/>
       <c r="AD245" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="246" spans="1:30" x14ac:dyDescent="0.2">
@@ -25183,7 +25189,7 @@
       <c r="AB248" s="2"/>
       <c r="AC248" s="2"/>
       <c r="AD248" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="249" spans="1:30" x14ac:dyDescent="0.2">
@@ -25675,7 +25681,7 @@
         <v>1040</v>
       </c>
       <c r="AD254" s="8" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="255" spans="1:30" x14ac:dyDescent="0.2">
@@ -27361,7 +27367,7 @@
       <c r="AB275" s="2"/>
       <c r="AC275" s="2"/>
       <c r="AD275" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="276" spans="1:30" x14ac:dyDescent="0.2">
@@ -27687,7 +27693,7 @@
       <c r="AB279" s="2"/>
       <c r="AC279" s="2"/>
       <c r="AD279" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="280" spans="1:30" x14ac:dyDescent="0.2">
@@ -27933,7 +27939,7 @@
       <c r="AB282" s="2"/>
       <c r="AC282" s="2"/>
       <c r="AD282" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="283" spans="1:30" x14ac:dyDescent="0.2">
@@ -28179,7 +28185,7 @@
       <c r="AB285" s="2"/>
       <c r="AC285" s="2"/>
       <c r="AD285" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="286" spans="1:30" x14ac:dyDescent="0.2">
@@ -28425,7 +28431,7 @@
       <c r="AB288" s="2"/>
       <c r="AC288" s="2"/>
       <c r="AD288" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="289" spans="1:30" x14ac:dyDescent="0.2">
@@ -28831,7 +28837,7 @@
       <c r="AB293" s="2"/>
       <c r="AC293" s="2"/>
       <c r="AD293" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="294" spans="1:30" x14ac:dyDescent="0.2">
@@ -29397,7 +29403,7 @@
       <c r="AB300" s="2"/>
       <c r="AC300" s="2"/>
       <c r="AD300" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="301" spans="1:30" x14ac:dyDescent="0.2">
@@ -29483,7 +29489,7 @@
       <c r="AB301" s="2"/>
       <c r="AC301" s="2"/>
       <c r="AD301" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="302" spans="1:30" x14ac:dyDescent="0.2">
@@ -29889,7 +29895,7 @@
       <c r="AB306" s="2"/>
       <c r="AC306" s="2"/>
       <c r="AD306" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="307" spans="1:30" x14ac:dyDescent="0.2">
@@ -30215,7 +30221,7 @@
       <c r="AB310" s="4"/>
       <c r="AC310" s="4"/>
       <c r="AD310" s="7" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="311" spans="1:30" x14ac:dyDescent="0.2">
@@ -30861,7 +30867,7 @@
       <c r="AB318" s="2"/>
       <c r="AC318" s="2"/>
       <c r="AD318" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="319" spans="1:30" x14ac:dyDescent="0.2">
@@ -31107,7 +31113,7 @@
       <c r="AB321" s="2"/>
       <c r="AC321" s="2"/>
       <c r="AD321" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="322" spans="1:30" x14ac:dyDescent="0.2">
@@ -31353,7 +31359,7 @@
       <c r="AB324" s="2"/>
       <c r="AC324" s="2"/>
       <c r="AD324" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="325" spans="1:30" x14ac:dyDescent="0.2">
@@ -31439,7 +31445,7 @@
       <c r="AB325" s="2"/>
       <c r="AC325" s="2"/>
       <c r="AD325" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="326" spans="1:30" x14ac:dyDescent="0.2">
@@ -31605,7 +31611,7 @@
       <c r="AB327" s="2"/>
       <c r="AC327" s="2"/>
       <c r="AD327" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="328" spans="1:30" x14ac:dyDescent="0.2">
@@ -31691,7 +31697,7 @@
       <c r="AB328" s="4"/>
       <c r="AC328" s="4"/>
       <c r="AD328" s="7" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="329" spans="1:30" x14ac:dyDescent="0.2">
@@ -31777,7 +31783,7 @@
       <c r="AB329" s="2"/>
       <c r="AC329" s="2"/>
       <c r="AD329" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="330" spans="1:30" x14ac:dyDescent="0.2">
@@ -32023,7 +32029,7 @@
       <c r="AB332" s="4"/>
       <c r="AC332" s="4"/>
       <c r="AD332" s="7" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="333" spans="1:30" x14ac:dyDescent="0.2">
@@ -32109,7 +32115,7 @@
       <c r="AB333" s="4"/>
       <c r="AC333" s="4"/>
       <c r="AD333" s="7" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="334" spans="1:30" x14ac:dyDescent="0.2">
@@ -32195,7 +32201,7 @@
       <c r="AB334" s="2"/>
       <c r="AC334" s="2"/>
       <c r="AD334" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="335" spans="1:30" x14ac:dyDescent="0.2">
@@ -33081,7 +33087,7 @@
       <c r="AB345" s="2"/>
       <c r="AC345" s="2"/>
       <c r="AD345" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="346" spans="1:30" x14ac:dyDescent="0.2">
@@ -33567,7 +33573,7 @@
       <c r="AB351" s="2"/>
       <c r="AC351" s="2"/>
       <c r="AD351" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="352" spans="1:30" x14ac:dyDescent="0.2">
@@ -33653,7 +33659,7 @@
       <c r="AB352" s="2"/>
       <c r="AC352" s="2"/>
       <c r="AD352" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="353" spans="1:30" x14ac:dyDescent="0.2">
@@ -34459,7 +34465,7 @@
       <c r="AB362" s="2"/>
       <c r="AC362" s="2"/>
       <c r="AD362" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="363" spans="1:30" x14ac:dyDescent="0.2">
@@ -35265,7 +35271,7 @@
       <c r="AB372" s="2"/>
       <c r="AC372" s="2"/>
       <c r="AD372" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="373" spans="1:30" x14ac:dyDescent="0.2">
@@ -35431,7 +35437,7 @@
       <c r="AB374" s="2"/>
       <c r="AC374" s="2"/>
       <c r="AD374" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="375" spans="1:30" x14ac:dyDescent="0.2">
@@ -36237,7 +36243,7 @@
       <c r="AB384" s="2"/>
       <c r="AC384" s="2"/>
       <c r="AD384" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="385" spans="1:30" x14ac:dyDescent="0.2">
@@ -36323,7 +36329,7 @@
       <c r="AB385" s="2"/>
       <c r="AC385" s="2"/>
       <c r="AD385" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="386" spans="1:30" x14ac:dyDescent="0.2">
@@ -36409,7 +36415,7 @@
       <c r="AB386" s="2"/>
       <c r="AC386" s="2"/>
       <c r="AD386" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="387" spans="1:30" x14ac:dyDescent="0.2">
@@ -36735,7 +36741,7 @@
       <c r="AB390" s="2"/>
       <c r="AC390" s="2"/>
       <c r="AD390" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="391" spans="1:30" x14ac:dyDescent="0.2">
@@ -36981,7 +36987,7 @@
       <c r="AB393" s="2"/>
       <c r="AC393" s="2"/>
       <c r="AD393" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="394" spans="1:30" x14ac:dyDescent="0.2">
@@ -37067,7 +37073,7 @@
       <c r="AB394" s="2"/>
       <c r="AC394" s="2"/>
       <c r="AD394" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="395" spans="1:30" x14ac:dyDescent="0.2">
@@ -37233,7 +37239,7 @@
       <c r="AB396" s="4"/>
       <c r="AC396" s="4"/>
       <c r="AD396" s="7" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="397" spans="1:30" x14ac:dyDescent="0.2">
@@ -37879,7 +37885,7 @@
       <c r="AB404" s="2"/>
       <c r="AC404" s="2"/>
       <c r="AD404" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="405" spans="1:30" x14ac:dyDescent="0.2">
@@ -38285,7 +38291,7 @@
       <c r="AB409" s="2"/>
       <c r="AC409" s="2"/>
       <c r="AD409" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="410" spans="1:30" x14ac:dyDescent="0.2">
@@ -38451,7 +38457,7 @@
       <c r="AB411" s="2"/>
       <c r="AC411" s="2"/>
       <c r="AD411" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="412" spans="1:30" x14ac:dyDescent="0.2">
